--- a/planner.xlsx
+++ b/planner.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Python\Django Framework\Appmuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF14FBB-0B67-4811-BAD3-DBECACCD5FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47074E41-7F66-4317-9D69-C73EA504A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F741404D-8D82-49F7-831C-6965AE616666}"/>
+    <workbookView xWindow="3105" yWindow="2820" windowWidth="21600" windowHeight="11295" xr2:uid="{F741404D-8D82-49F7-831C-6965AE616666}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Permohonan data" sheetId="1" r:id="rId1"/>
-    <sheet name="strategic commodities" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="strategic commodities" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -78,12 +79,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
     <t>desc_data</t>
   </si>
   <si>
@@ -93,12 +88,6 @@
     <t>app_letter</t>
   </si>
   <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>history_permintaan_permohonan</t>
-  </si>
-  <si>
     <t>Model Permintaan Data</t>
   </si>
   <si>
@@ -112,6 +101,333 @@
   </si>
   <si>
     <t>whatsapp</t>
+  </si>
+  <si>
+    <t>Tabel Statistik</t>
+  </si>
+  <si>
+    <t>Berita Statistik</t>
+  </si>
+  <si>
+    <t>Permohonan Data</t>
+  </si>
+  <si>
+    <t>Infografis</t>
+  </si>
+  <si>
+    <t>Videografis</t>
+  </si>
+  <si>
+    <t>Tabel Infografis</t>
+  </si>
+  <si>
+    <t>Subjek</t>
+  </si>
+  <si>
+    <t>Judul</t>
+  </si>
+  <si>
+    <t>Analisis</t>
+  </si>
+  <si>
+    <t>file_infografis</t>
+  </si>
+  <si>
+    <t>time_created</t>
+  </si>
+  <si>
+    <t>time_updated</t>
+  </si>
+  <si>
+    <t>count_visited</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>Tabel Videografis</t>
+  </si>
+  <si>
+    <t>file_videografis</t>
+  </si>
+  <si>
+    <t>Thumbnail</t>
+  </si>
+  <si>
+    <t>Tabel Berita Statistik</t>
+  </si>
+  <si>
+    <t>Konten</t>
+  </si>
+  <si>
+    <t>file_lampiran</t>
+  </si>
+  <si>
+    <t>Tabel Permohonan Data</t>
+  </si>
+  <si>
+    <t>Permohonan</t>
+  </si>
+  <si>
+    <t>Nama Pemohon</t>
+  </si>
+  <si>
+    <t>Kontak Wa Pemohon</t>
+  </si>
+  <si>
+    <t>Instansi</t>
+  </si>
+  <si>
+    <t>Deskripsi Data</t>
+  </si>
+  <si>
+    <t>Surat Permohonan</t>
+  </si>
+  <si>
+    <t>Tanggal Pengajuan</t>
+  </si>
+  <si>
+    <t>Tanggal Acc</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>name_person</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>agency_person</t>
+  </si>
+  <si>
+    <t>tanggal_permohonan</t>
+  </si>
+  <si>
+    <t>tanggal_disetujui</t>
+  </si>
+  <si>
+    <t>Model Master Infografis</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>request_at</t>
+  </si>
+  <si>
+    <t>approved_at</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>num_visits</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Judul Infografis</t>
+  </si>
+  <si>
+    <t>Analisis Deskripsi</t>
+  </si>
+  <si>
+    <t>File Infografis</t>
+  </si>
+  <si>
+    <t>Jumlah Kunjungan</t>
+  </si>
+  <si>
+    <t>Status Ditampilkan</t>
+  </si>
+  <si>
+    <t>Model Master videografis</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>Thumbnail Video</t>
+  </si>
+  <si>
+    <t>File Videografis</t>
+  </si>
+  <si>
+    <t>Model Berita Statistik</t>
+  </si>
+  <si>
+    <t>Judul Berita</t>
+  </si>
+  <si>
+    <t>Konten Berita</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Thumbnail Berita</t>
+  </si>
+  <si>
+    <t>File BRS</t>
+  </si>
+  <si>
+    <t>file_brs</t>
+  </si>
+  <si>
+    <t>Kelola Data Statistik</t>
+  </si>
+  <si>
+    <t>Model Subject</t>
+  </si>
+  <si>
+    <t>Nama Subject</t>
+  </si>
+  <si>
+    <t>Kelompok Subject</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>1. Sosial dan Kependudukan; 2. Ekonomi dan Perdagangan; 3.Pertanian dan Pertambangan</t>
+  </si>
+  <si>
+    <t>Tampilkan</t>
+  </si>
+  <si>
+    <t>subject_group</t>
+  </si>
+  <si>
+    <t>Model Indikator</t>
+  </si>
+  <si>
+    <t>Field_db</t>
+  </si>
+  <si>
+    <t>Subject CSA</t>
+  </si>
+  <si>
+    <t>Nama Indikator</t>
+  </si>
+  <si>
+    <t>Deskripsi Indikator</t>
+  </si>
+  <si>
+    <t>Keterangan Indikator</t>
+  </si>
+  <si>
+    <t>Kelompok Karakteristik</t>
+  </si>
+  <si>
+    <t>Kelompok Judul Baris</t>
+  </si>
+  <si>
+    <t>Periode Waktu</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Jumlah Angka Desimal</t>
+  </si>
+  <si>
+    <t>Kategori Statistik</t>
+  </si>
+  <si>
+    <t>subjects_id</t>
+  </si>
+  <si>
+    <t>footer_desc</t>
+  </si>
+  <si>
+    <t>time_period_id</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>decimal_point</t>
+  </si>
+  <si>
+    <t>stat_category</t>
+  </si>
+  <si>
+    <t>1. Dasar; 2. Sektoral</t>
+  </si>
+  <si>
+    <t>csa_groups</t>
+  </si>
+  <si>
+    <t>Nama Karakteristik</t>
+  </si>
+  <si>
+    <t>Karakteristik</t>
+  </si>
+  <si>
+    <t>col_group_id</t>
+  </si>
+  <si>
+    <t>row_group_id</t>
+  </si>
+  <si>
+    <t>Model Kelompok Karaketeristik</t>
+  </si>
+  <si>
+    <t>Model Kelompok Judul Baris</t>
+  </si>
+  <si>
+    <t>Nama Judul Baris</t>
+  </si>
+  <si>
+    <t>Item Baris</t>
+  </si>
+  <si>
+    <t>Item Kolom</t>
+  </si>
+  <si>
+    <t>item_row</t>
+  </si>
+  <si>
+    <t>No Urut</t>
+  </si>
+  <si>
+    <t>order_num</t>
+  </si>
+  <si>
+    <t>Nama Periode Waktu</t>
+  </si>
+  <si>
+    <t>Model Periode Waktu Baris</t>
+  </si>
+  <si>
+    <t>Item Periode Waktu</t>
+  </si>
+  <si>
+    <t>Model Satuan</t>
+  </si>
+  <si>
+    <t>name_unit</t>
+  </si>
+  <si>
+    <t>char_id</t>
+  </si>
+  <si>
+    <t>item_char</t>
   </si>
 </sst>
 </file>
@@ -127,12 +443,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,17 +475,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,184 +831,1320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB85D15B-649B-4995-8AED-7C30899AC400}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="A2:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="1">
+        <v>8</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="1">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="1">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
+      <c r="D67" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F950C545-DCE7-481C-B146-97D7860AE9CA}">
+  <dimension ref="A3:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E613E4C-9FC1-4F40-A032-F5E881559921}">
   <dimension ref="A1"/>
   <sheetViews>
